--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_MixedPanels_Test/TestMultipleVerticalPanelsGrouping.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_MixedPanels_Test/TestMultipleVerticalPanelsGrouping.xlsx
@@ -8,12 +8,7 @@
   <x:sheets>
     <x:sheet name="Test" sheetId="2" r:id="rId2"/>
   </x:sheets>
-  <x:definedNames>
-    <x:definedName name="ChildRange" localSheetId="0">Test!$B$20:$G$20</x:definedName>
-    <x:definedName name="simpleRange2" localSheetId="0">Test!$D$20:$G$20</x:definedName>
-    <x:definedName name="simpleRange1">Test!$C$16:$D$16</x:definedName>
-    <x:definedName name="ChildOfChildRange">Test!$B$19:$G$20</x:definedName>
-  </x:definedNames>
+  <x:definedNames/>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -136,6 +131,23 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -154,16 +166,33 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color rgb="FFA52A2A"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFA52A2A"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FFA52A2A"/>
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
         <x:color rgb="FF000000"/>
@@ -171,151 +200,49 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
+        <x:color rgb="FFFF0000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FFFF0000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FFFF0000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="thin">
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -392,83 +319,253 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FFFF0000"/>
+        <x:color rgb="FF008000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFFA500"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF008000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFFA500"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF008000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF008000"/>
+        <x:color rgb="FFFFA500"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF008000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FFFF0000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FFFF0000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFA52A2A"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -485,23 +582,6 @@
       <x:top style="thin">
         <x:color rgb="FFFFA500"/>
       </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
@@ -513,113 +593,28 @@
       <x:left style="none">
         <x:color rgb="FF008000"/>
       </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFFA500"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF008000"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF008000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF008000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FFA52A2A"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFA52A2A"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FFA52A2A"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFA52A2A"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
@@ -648,15 +643,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -672,6 +664,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -681,6 +676,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -696,9 +694,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -711,9 +706,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="24" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -721,6 +713,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -755,7 +750,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -763,10 +758,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -787,6 +778,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -799,6 +794,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -819,10 +818,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -839,10 +834,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -852,6 +843,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1165,23 +1160,23 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:7">
-      <x:c r="B2" s="5" t="s">
+      <x:c r="B2" s="16" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="6">
+      <x:c r="C2" s="17">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D2" s="8" t="s"/>
-      <x:c r="E2" s="8" t="s"/>
-      <x:c r="F2" s="8" t="s"/>
-      <x:c r="G2" s="7" t="s"/>
+      <x:c r="D2" s="18" t="s"/>
+      <x:c r="E2" s="18" t="s"/>
+      <x:c r="F2" s="18" t="s"/>
+      <x:c r="G2" s="19" t="s"/>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="n">
+      <x:c r="D3" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
@@ -1191,186 +1186,186 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="17" t="s">
+      <x:c r="C4" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D4" s="18" t="s">
+      <x:c r="D4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E4" s="18" t="n">
+      <x:c r="E4" s="6" t="n">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="F4" s="18" t="s">
+      <x:c r="F4" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G4" s="19" t="s"/>
+      <x:c r="G4" s="7" t="s"/>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="13" t="s"/>
-      <x:c r="D5" s="14" t="s">
+      <x:c r="C5" s="8" t="s"/>
+      <x:c r="D5" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E5" s="15" t="s">
+      <x:c r="E5" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F5" s="15" t="s">
+      <x:c r="F5" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G5" s="16" t="n">
+      <x:c r="G5" s="11" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="13" t="s"/>
-      <x:c r="D6" s="23" t="s"/>
-      <x:c r="E6" s="22">
+      <x:c r="C6" s="8" t="s"/>
+      <x:c r="D6" s="12" t="s"/>
+      <x:c r="E6" s="13">
         <x:v>43033</x:v>
       </x:c>
-      <x:c r="F6" s="21" t="s">
+      <x:c r="F6" s="14" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G6" s="20" t="n">
+      <x:c r="G6" s="15" t="n">
         <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="13" t="s"/>
-      <x:c r="D7" s="14" t="s">
+      <x:c r="C7" s="8" t="s"/>
+      <x:c r="D7" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E7" s="15" t="s">
+      <x:c r="E7" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F7" s="15" t="s">
+      <x:c r="F7" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G7" s="16" t="n">
+      <x:c r="G7" s="11" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="B8" s="3" t="s"/>
-      <x:c r="C8" s="13" t="s"/>
-      <x:c r="D8" s="23" t="s"/>
-      <x:c r="E8" s="22">
+      <x:c r="C8" s="8" t="s"/>
+      <x:c r="D8" s="12" t="s"/>
+      <x:c r="E8" s="13">
         <x:v>43033</x:v>
       </x:c>
-      <x:c r="F8" s="21" t="s">
+      <x:c r="F8" s="14" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G8" s="20" t="n">
+      <x:c r="G8" s="15" t="n">
         <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="B9" s="3" t="s"/>
-      <x:c r="C9" s="17" t="s">
+      <x:c r="C9" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D9" s="18" t="s">
+      <x:c r="D9" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E9" s="18" t="n">
+      <x:c r="E9" s="6" t="n">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="F9" s="18" t="s">
+      <x:c r="F9" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G9" s="19" t="s"/>
+      <x:c r="G9" s="7" t="s"/>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="B10" s="3" t="s"/>
-      <x:c r="C10" s="17" t="s">
+      <x:c r="C10" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D10" s="18" t="s">
+      <x:c r="D10" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E10" s="18" t="n">
+      <x:c r="E10" s="6" t="n">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="F10" s="18" t="s">
+      <x:c r="F10" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G10" s="19" t="s"/>
+      <x:c r="G10" s="7" t="s"/>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="B11" s="3" t="s"/>
-      <x:c r="C11" s="13" t="s"/>
-      <x:c r="D11" s="14" t="s">
+      <x:c r="C11" s="8" t="s"/>
+      <x:c r="D11" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E11" s="15" t="s">
+      <x:c r="E11" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F11" s="15" t="s">
+      <x:c r="F11" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G11" s="16" t="n">
+      <x:c r="G11" s="11" t="n">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="B12" s="9" t="s"/>
-      <x:c r="C12" s="24" t="s"/>
-      <x:c r="D12" s="28" t="s"/>
-      <x:c r="E12" s="27">
+      <x:c r="B12" s="20" t="s"/>
+      <x:c r="C12" s="28" t="s"/>
+      <x:c r="D12" s="29" t="s"/>
+      <x:c r="E12" s="30">
         <x:v>43033</x:v>
       </x:c>
-      <x:c r="F12" s="26" t="s">
+      <x:c r="F12" s="31" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G12" s="25" t="n">
+      <x:c r="G12" s="32" t="n">
         <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="B13" s="5" t="s">
+      <x:c r="B13" s="16" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C13" s="6">
+      <x:c r="C13" s="17">
         <x:v>43041</x:v>
       </x:c>
-      <x:c r="D13" s="8" t="s"/>
-      <x:c r="E13" s="8" t="s"/>
-      <x:c r="F13" s="8" t="s"/>
-      <x:c r="G13" s="7" t="s"/>
+      <x:c r="D13" s="18" t="s"/>
+      <x:c r="E13" s="18" t="s"/>
+      <x:c r="F13" s="18" t="s"/>
+      <x:c r="G13" s="19" t="s"/>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="B14" s="9" t="s"/>
-      <x:c r="C14" s="30" t="s">
+      <x:c r="B14" s="20" t="s"/>
+      <x:c r="C14" s="24" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D14" s="29" t="n">
+      <x:c r="D14" s="25" t="n">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="E14" s="31" t="n">
+      <x:c r="E14" s="26" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F14" s="31" t="s"/>
-      <x:c r="G14" s="32" t="s"/>
+      <x:c r="F14" s="26" t="s"/>
+      <x:c r="G14" s="27" t="s"/>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="B15" s="5" t="s">
+      <x:c r="B15" s="16" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C15" s="6">
+      <x:c r="C15" s="17">
         <x:v>43042</x:v>
       </x:c>
-      <x:c r="D15" s="8" t="s"/>
-      <x:c r="E15" s="8" t="s"/>
-      <x:c r="F15" s="8" t="s"/>
-      <x:c r="G15" s="7" t="s"/>
+      <x:c r="D15" s="18" t="s"/>
+      <x:c r="E15" s="18" t="s"/>
+      <x:c r="F15" s="18" t="s"/>
+      <x:c r="G15" s="19" t="s"/>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="B16" s="3" t="s"/>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="C16" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="n">
+      <x:c r="D16" s="2" t="n">
         <x:v>5500.8</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
@@ -1380,65 +1375,65 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="B17" s="3" t="s"/>
-      <x:c r="C17" s="17" t="s">
+      <x:c r="C17" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D17" s="18" t="s">
+      <x:c r="D17" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E17" s="18" t="n">
+      <x:c r="E17" s="6" t="n">
         <x:v>5500.8</x:v>
       </x:c>
-      <x:c r="F17" s="18" t="s">
+      <x:c r="F17" s="6" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G17" s="19" t="s"/>
+      <x:c r="G17" s="7" t="s"/>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="B18" s="3" t="s"/>
-      <x:c r="C18" s="13" t="s"/>
-      <x:c r="D18" s="14" t="s">
+      <x:c r="C18" s="8" t="s"/>
+      <x:c r="D18" s="9" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E18" s="15" t="s">
+      <x:c r="E18" s="10" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F18" s="15" t="s">
+      <x:c r="F18" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G18" s="16" t="n">
+      <x:c r="G18" s="11" t="n">
         <x:v>1533</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="B19" s="3" t="s"/>
-      <x:c r="C19" s="13" t="s"/>
-      <x:c r="D19" s="23" t="s"/>
-      <x:c r="E19" s="22">
+      <x:c r="C19" s="8" t="s"/>
+      <x:c r="D19" s="12" t="s"/>
+      <x:c r="E19" s="13">
         <x:v>43033</x:v>
       </x:c>
-      <x:c r="F19" s="21" t="s">
+      <x:c r="F19" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="G19" s="20" t="n">
+      <x:c r="G19" s="15" t="n">
         <x:v>5456</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="B20" s="9" t="s"/>
-      <x:c r="C20" s="10" t="s">
+      <x:c r="B20" s="20" t="s"/>
+      <x:c r="C20" s="21" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D20" s="11" t="s">
+      <x:c r="D20" s="22" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E20" s="11" t="n">
+      <x:c r="E20" s="22" t="n">
         <x:v>5500.8</x:v>
       </x:c>
-      <x:c r="F20" s="11" t="s">
+      <x:c r="F20" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G20" s="12" t="s"/>
+      <x:c r="G20" s="23" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_MixedPanels_Test/TestMultipleVerticalPanelsGrouping.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_MixedPanels_Test/TestMultipleVerticalPanelsGrouping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Test1</x:t>
   </x:si>
@@ -37,6 +37,12 @@
     <x:t>Test1_Child1_ChildOfChild1_F2</x:t>
   </x:si>
   <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test1_Child1_ChildOfChild2_F1</x:t>
   </x:si>
   <x:si>
@@ -80,6 +86,12 @@
   </x:si>
   <x:si>
     <x:t>Test3_Child1_ChildOfChild1_F2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5456</x:t>
   </x:si>
   <x:si>
     <x:t>Test3_Child2_F1</x:t>
@@ -132,6 +144,74 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
         <x:color rgb="FFA52A2A"/>
       </x:left>
       <x:right style="none">
@@ -165,23 +245,6 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -217,24 +280,24 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
         <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FFFF0000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
@@ -257,7 +320,7 @@
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
-        <x:color rgb="FFFF0000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
         <x:color rgb="FF000000"/>
@@ -285,24 +348,24 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
         <x:color rgb="FF008000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF008000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF008000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
@@ -336,7 +399,7 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
-        <x:color rgb="FF008000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="none">
         <x:color rgb="FF000000"/>
@@ -353,64 +416,13 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
-        <x:color rgb="FF008000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
         <x:color rgb="FF000000"/>
@@ -443,8 +455,8 @@
       <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
@@ -454,14 +466,14 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FFFF0000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
+      <x:left style="thin">
+        <x:color rgb="FF008000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFFA500"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
@@ -472,13 +484,30 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
-        <x:color rgb="FFFF0000"/>
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFFA500"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FFFF0000"/>
+        <x:color rgb="FFFFA500"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
@@ -562,7 +591,7 @@
       <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
+      <x:top style="thin">
         <x:color rgb="FFFF0000"/>
       </x:top>
       <x:bottom style="thin">
@@ -573,14 +602,14 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF008000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFFF0000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
@@ -591,30 +620,13 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
-        <x:color rgb="FF008000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF008000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FFFFA500"/>
+        <x:color rgb="FFFF0000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
@@ -631,6 +643,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -664,9 +679,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -694,6 +706,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -713,9 +728,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -734,6 +746,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -778,10 +794,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -818,6 +830,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -843,10 +859,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1153,287 +1165,287 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G26"/>
+  <x:dimension ref="A1:G20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:7">
-      <x:c r="B2" s="16" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="17">
+      <x:c r="C2" s="2">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D2" s="18" t="s"/>
-      <x:c r="E2" s="18" t="s"/>
-      <x:c r="F2" s="18" t="s"/>
-      <x:c r="G2" s="19" t="s"/>
+      <x:c r="D2" s="3"/>
+      <x:c r="E2" s="3"/>
+      <x:c r="F2" s="3"/>
+      <x:c r="G2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="B3" s="5"/>
+      <x:c r="C3" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="n">
+      <x:c r="D3" s="7">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G3" s="4" t="s"/>
+      <x:c r="G3" s="8"/>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="5" t="s">
+      <x:c r="B4" s="5"/>
+      <x:c r="C4" s="9" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D4" s="6" t="s">
+      <x:c r="D4" s="10" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E4" s="6" t="n">
+      <x:c r="E4" s="10">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="F4" s="6" t="s">
+      <x:c r="F4" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G4" s="7" t="s"/>
+      <x:c r="G4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="8" t="s"/>
-      <x:c r="D5" s="9" t="s">
+      <x:c r="B5" s="5"/>
+      <x:c r="C5" s="12"/>
+      <x:c r="D5" s="13" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E5" s="10" t="s">
+      <x:c r="E5" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F5" s="10" t="s">
+      <x:c r="F5" s="14" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G5" s="11" t="n">
+      <x:c r="G5" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="B6" s="5"/>
+      <x:c r="C6" s="12"/>
+      <x:c r="D6" s="16"/>
+      <x:c r="E6" s="17">
+        <x:v>43033</x:v>
+      </x:c>
+      <x:c r="F6" s="18" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G6" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="B7" s="5"/>
+      <x:c r="C7" s="12"/>
+      <x:c r="D7" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E7" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="14" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G7" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="B8" s="5"/>
+      <x:c r="C8" s="12"/>
+      <x:c r="D8" s="16"/>
+      <x:c r="E8" s="17">
+        <x:v>43033</x:v>
+      </x:c>
+      <x:c r="F8" s="18" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G8" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="B9" s="5"/>
+      <x:c r="C9" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E9" s="10">
+        <x:v>55.76</x:v>
+      </x:c>
+      <x:c r="F9" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="11"/>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="B10" s="5"/>
+      <x:c r="C10" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="10">
+        <x:v>55.76</x:v>
+      </x:c>
+      <x:c r="F10" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="11"/>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="B11" s="5"/>
+      <x:c r="C11" s="12"/>
+      <x:c r="D11" s="13" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="8" t="s"/>
-      <x:c r="D6" s="12" t="s"/>
-      <x:c r="E6" s="13">
+      <x:c r="E11" s="14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="14" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G11" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="B12" s="20"/>
+      <x:c r="C12" s="21"/>
+      <x:c r="D12" s="22"/>
+      <x:c r="E12" s="23">
         <x:v>43033</x:v>
       </x:c>
-      <x:c r="F6" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G6" s="15" t="n">
-        <x:v>345</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="8" t="s"/>
-      <x:c r="D7" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E7" s="10" t="s">
+      <x:c r="F12" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="25" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F7" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="11" t="n">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="C8" s="8" t="s"/>
-      <x:c r="D8" s="12" t="s"/>
-      <x:c r="E8" s="13">
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="B13" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C13" s="2">
+        <x:v>43041</x:v>
+      </x:c>
+      <x:c r="D13" s="3"/>
+      <x:c r="E13" s="3"/>
+      <x:c r="F13" s="3"/>
+      <x:c r="G13" s="4"/>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="B14" s="20"/>
+      <x:c r="C14" s="26" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D14" s="27">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E14" s="28">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F14" s="28"/>
+      <x:c r="G14" s="29"/>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="B15" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C15" s="2">
+        <x:v>43042</x:v>
+      </x:c>
+      <x:c r="D15" s="3"/>
+      <x:c r="E15" s="3"/>
+      <x:c r="F15" s="3"/>
+      <x:c r="G15" s="4"/>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="B16" s="5"/>
+      <x:c r="C16" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D16" s="7">
+        <x:v>5500.8</x:v>
+      </x:c>
+      <x:c r="E16" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G16" s="8"/>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="B17" s="5"/>
+      <x:c r="C17" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D17" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E17" s="10">
+        <x:v>5500.8</x:v>
+      </x:c>
+      <x:c r="F17" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G17" s="11"/>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="B18" s="5"/>
+      <x:c r="C18" s="12"/>
+      <x:c r="D18" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E18" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F18" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G18" s="15" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="B19" s="5"/>
+      <x:c r="C19" s="12"/>
+      <x:c r="D19" s="16"/>
+      <x:c r="E19" s="17">
         <x:v>43033</x:v>
       </x:c>
-      <x:c r="F8" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G8" s="15" t="n">
-        <x:v>345</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="C9" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="n">
-        <x:v>55.76</x:v>
-      </x:c>
-      <x:c r="F9" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="7" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="B10" s="3" t="s"/>
-      <x:c r="C10" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="n">
-        <x:v>55.76</x:v>
-      </x:c>
-      <x:c r="F10" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="7" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="B11" s="3" t="s"/>
-      <x:c r="C11" s="8" t="s"/>
-      <x:c r="D11" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E11" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F11" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G11" s="11" t="n">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="B12" s="20" t="s"/>
-      <x:c r="C12" s="28" t="s"/>
-      <x:c r="D12" s="29" t="s"/>
-      <x:c r="E12" s="30">
-        <x:v>43033</x:v>
-      </x:c>
-      <x:c r="F12" s="31" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G12" s="32" t="n">
-        <x:v>345</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="B13" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C13" s="17">
-        <x:v>43041</x:v>
-      </x:c>
-      <x:c r="D13" s="18" t="s"/>
-      <x:c r="E13" s="18" t="s"/>
-      <x:c r="F13" s="18" t="s"/>
-      <x:c r="G13" s="19" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="B14" s="20" t="s"/>
-      <x:c r="C14" s="24" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D14" s="25" t="n">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E14" s="26" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F14" s="26" t="s"/>
-      <x:c r="G14" s="27" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="B15" s="16" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C15" s="17">
-        <x:v>43042</x:v>
-      </x:c>
-      <x:c r="D15" s="18" t="s"/>
-      <x:c r="E15" s="18" t="s"/>
-      <x:c r="F15" s="18" t="s"/>
-      <x:c r="G15" s="19" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="B16" s="3" t="s"/>
-      <x:c r="C16" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="n">
+      <x:c r="F19" s="18" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G19" s="19" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="B20" s="20"/>
+      <x:c r="C20" s="30" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D20" s="31" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E20" s="31">
         <x:v>5500.8</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G16" s="4" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:7">
-      <x:c r="B17" s="3" t="s"/>
-      <x:c r="C17" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D17" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E17" s="6" t="n">
-        <x:v>5500.8</x:v>
-      </x:c>
-      <x:c r="F17" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G17" s="7" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:7">
-      <x:c r="B18" s="3" t="s"/>
-      <x:c r="C18" s="8" t="s"/>
-      <x:c r="D18" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E18" s="10" t="s">
+      <x:c r="F20" s="31" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F18" s="10" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G18" s="11" t="n">
-        <x:v>1533</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:7">
-      <x:c r="B19" s="3" t="s"/>
-      <x:c r="C19" s="8" t="s"/>
-      <x:c r="D19" s="12" t="s"/>
-      <x:c r="E19" s="13">
-        <x:v>43033</x:v>
-      </x:c>
-      <x:c r="F19" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G19" s="15" t="n">
-        <x:v>5456</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:7">
-      <x:c r="B20" s="20" t="s"/>
-      <x:c r="C20" s="21" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D20" s="22" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E20" s="22" t="n">
-        <x:v>5500.8</x:v>
-      </x:c>
-      <x:c r="F20" s="22" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G20" s="23" t="s"/>
+      <x:c r="G20" s="32"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
